--- a/public/files/format/EXEL-IMPORT-SISWA.xlsx
+++ b/public/files/format/EXEL-IMPORT-SISWA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arenzha\Documents\FAUZI FOLDER\PROJECT\cek-lulus\public\files\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cek-lulus\public\files\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA70F3B-398C-4945-A858-F2E2E360B331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>FAUZI AGUSTIAN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NAMA</t>
   </si>
@@ -38,41 +36,32 @@
     <t>NO</t>
   </si>
   <si>
-    <t>NO UJIAN</t>
-  </si>
-  <si>
     <t>KELAS</t>
   </si>
   <si>
     <t>STATUS</t>
   </si>
   <si>
-    <t>PESAN</t>
-  </si>
-  <si>
-    <t>12 IPA 5</t>
-  </si>
-  <si>
-    <t>ANDA DINYATAKAN LULUS DARI SMA NEGERI 1 PARUNG</t>
-  </si>
-  <si>
-    <t>NAMA ORTU</t>
-  </si>
-  <si>
-    <t>TEMPAT, TANGGAL LAHIR</t>
-  </si>
-  <si>
-    <t>BAPAK FAUZI</t>
-  </si>
-  <si>
-    <t>Bogor, 8 maret 1980</t>
+    <t>LULUS</t>
+  </si>
+  <si>
+    <t>SKL</t>
+  </si>
+  <si>
+    <t>https://smkn1-cirebon.sch.id/</t>
+  </si>
+  <si>
+    <t>HAIKAL</t>
+  </si>
+  <si>
+    <t>XII RPL 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +73,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,10 +103,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,8 +115,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,83 +398,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
-    <col min="5" max="5" width="39.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" customWidth="1"/>
-    <col min="7" max="7" width="50.81640625" customWidth="1"/>
-    <col min="9" max="9" width="49.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>12345611</v>
+        <v>1234567890</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2">
-        <v>121212</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{F661719E-BD86-4E81-9DDF-B9FDC11DFCAD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>